--- a/doc/excel/干部/[sample_scMatterItem]个人有关事项_填报对象样表.xlsx
+++ b/doc/excel/干部/[sample_scMatterItem]个人有关事项_填报对象样表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fafa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip.nuaa\doc\excel\干部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>工作证号</t>
   </si>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>封面填表日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -52,6 +56,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -112,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,8 +130,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,18 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -435,9 +450,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
